--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_8_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_8_sawtooth_0.1_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.90000000000061</v>
+        <v>25.44000000000054</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006133084667633293</v>
+        <v>0.000667105625100195</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01489848376316958</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.347059296388011e-10</v>
-      </c>
+        <v>0.01216389069460296</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.100625602550839</v>
+        <v>4.169463496254855</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.6338842426121278, 6.567366962489551]</t>
+          <t>[1.4031065310340889, 6.935820461475622]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.001167443564808135</v>
+        <v>0.003213332830893201</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00233488712961627</v>
+        <v>0.006426665661786402</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.434000250287233</v>
+        <v>-2.037789829355541</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.213895123250465, -0.6541053773240009]</t>
+          <t>[-2.7296320553713116, -1.34594760333977]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003348408993588681</v>
+        <v>1.294510187932474e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0006696817987177361</v>
+        <v>2.589020375864948e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>12.92785228034818</v>
+        <v>13.80441229119396</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.45603823529046, 14.3996663254059]</t>
+          <t>[12.30029461887912, 15.308529963508798]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.91111111111125</v>
+        <v>8.250810810810982</v>
       </c>
       <c r="X2" t="n">
-        <v>2.696296296296359</v>
+        <v>5.44960960960972</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.125925925926142</v>
+        <v>11.05201201201224</v>
       </c>
     </row>
     <row r="3">
@@ -643,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09000000000001</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01535778677604949</v>
+        <v>0.1114641026399719</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06997678631189089</v>
+        <v>0.2822913666013354</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.566090978114785</v>
+        <v>3.65377476433184</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.8153777698462363, 10.316804186383333]</t>
+          <t>[-0.5960557573632119, 7.903605286026892]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.02190297503442906</v>
+        <v>0.09154554344216859</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02190297503442906</v>
+        <v>0.09154554344216859</v>
       </c>
       <c r="O3" t="n">
-        <v>1.289342330302118</v>
+        <v>0.1320789704211913</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.1823947686768852, 2.39628989192735]</t>
+          <t>[-1.446579199851156, 1.7107371406935385]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0226783752974995</v>
+        <v>0.8690905877906339</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0226783752974995</v>
+        <v>0.8690905877906339</v>
       </c>
       <c r="S3" t="n">
-        <v>15.53835157442608</v>
+        <v>13.17145219252652</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.910978712074396, 18.16572443677777]</t>
+          <t>[10.751561710110131, 15.591342674942915]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.55701701701703</v>
+        <v>23.32906906906936</v>
       </c>
       <c r="X3" t="n">
-        <v>13.66528528528529</v>
+        <v>17.34175175175197</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.44874874874876</v>
+        <v>29.31638638638674</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_8_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_8_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.44000000000054</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000667105625100195</v>
+        <v>1.806998448383723e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01216389069460296</v>
+        <v>0.001310316689419876</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.169463496254855</v>
+        <v>4.891724546356404</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.4031065310340889, 6.935820461475622]</t>
+          <t>[2.350169455644597, 7.43327963706821]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.003213332830893201</v>
+        <v>0.0001753789091976099</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006426665661786402</v>
+        <v>0.0003507578183952198</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.037789829355541</v>
+        <v>-1.320789704211925</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.7296320553713116, -1.34594760333977]</t>
+          <t>[-1.8994213841523866, -0.7421580242714629]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.294510187932474e-08</v>
+        <v>9.136800911857534e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>2.589020375864948e-08</v>
+        <v>9.136800911857534e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>13.80441229119396</v>
+        <v>13.5136819551816</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.30029461887912, 15.308529963508798]</t>
+          <t>[12.073020146391872, 14.954343763971334]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>8.250810810810982</v>
+        <v>5.463363363363491</v>
       </c>
       <c r="X2" t="n">
-        <v>5.44960960960972</v>
+        <v>3.069889889889963</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.05201201201224</v>
+        <v>7.85683683683702</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.83000000000029</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1114641026399719</v>
+        <v>0.008365073698117453</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2822913666013354</v>
+        <v>0.03401110775517315</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>3.65377476433184</v>
+        <v>5.691506113226613</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[-0.5960557573632119, 7.903605286026892]</t>
+          <t>[1.0617695441879729, 10.321242682265254]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.09154554344216859</v>
+        <v>0.01624963989987549</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09154554344216859</v>
+        <v>0.01624963989987549</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1320789704211913</v>
+        <v>-2.830263651882697</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.446579199851156, 1.7107371406935385]</t>
+          <t>[-3.836579616996544, -1.8239476867688493]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.8690905877906339</v>
+        <v>9.657440647181659e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8690905877906339</v>
+        <v>1.931488129436332e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>13.17145219252652</v>
+        <v>16.57599233381602</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.751561710110131, 15.591342674942915]</t>
+          <t>[14.00915592796077, 19.142828739671273]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>23.32906906906936</v>
+        <v>10.36486486486494</v>
       </c>
       <c r="X3" t="n">
-        <v>17.34175175175197</v>
+        <v>6.679579579579626</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.31638638638674</v>
+        <v>14.05015015015024</v>
       </c>
     </row>
   </sheetData>
